--- a/xlsx/行为主义_intext.xlsx
+++ b/xlsx/行为主义_intext.xlsx
@@ -15,279 +15,285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>行为主义</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_行为主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA</t>
+  </si>
+  <si>
+    <t>行为</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86</t>
+  </si>
+  <si>
+    <t>意识</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97</t>
+  </si>
+  <si>
+    <t>自由意志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%88%E5%A4%A9%E4%B8%8E%E5%90%8E%E5%A4%A9</t>
+  </si>
+  <si>
+    <t>先天与后天</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%88%B6%E7%B4%84</t>
+  </si>
+  <si>
+    <t>古典制约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E5%BC%B7</t>
+  </si>
+  <si>
+    <t>增强</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E8%AB%96</t>
+  </si>
+  <si>
+    <t>方法论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%A1%91%E4%BB%A3%E5%85%8B</t>
+  </si>
+  <si>
+    <t>爱德华·桑代克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%88%E6%9E%9C%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>效果律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%8D%8E%E7%94%9F_(%E5%BF%83%E7%90%86%E5%AD%A6%E5%AE%B6)</t>
+  </si>
+  <si>
+    <t>约翰·华生 (心理学家)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E7%9C%81</t>
+  </si>
+  <si>
+    <t>内省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E8%B5%AB%E6%96%AF%C2%B7%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E6%96%AF%E9%87%91%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>伯尔赫斯·弗雷德里克·斯金纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E7%94%A8%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>实用主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%83%E7%BD%97%E5%BE%B7%E6%96%AF%C2%B7%E5%8D%8E%E7%94%9F</t>
+  </si>
+  <si>
+    <t>约翰·布罗德斯·华生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%87%C2%B7%E5%B7%B4%E7%94%AB%E6%B4%9B%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>伊万·巴甫洛夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E5%88%B6%E7%B4%84</t>
+  </si>
+  <si>
+    <t>操作制约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>精神分析学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%AF%9F</t>
+  </si>
+  <si>
+    <t>观察</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%BF%B5</t>
+  </si>
+  <si>
+    <t>信念</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80</t>
+  </si>
+  <si>
+    <t>客观</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>认知心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>微观经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%C2%B7L%C2%B7%E8%B5%AB%E7%88%BE</t>
+  </si>
+  <si>
+    <t>克拉克·L·赫尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>比较心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%97</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E6%A1%91%E4%BB%A3%E5%85%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>认知主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E9%BC%A0</t>
+  </si>
+  <si>
+    <t>老鼠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B8%BD%E5%AD%90</t>
+  </si>
+  <si>
+    <t>鸽子</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>精神哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>自然科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>分析哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E5%8D%A1%E5%B0%94%E7%BA%B3%E6%99%AE</t>
+  </si>
+  <si>
+    <t>鲁道夫·卡尔纳普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%8B%89%E5%BE%B7%C2%B7%E5%86%AF%C2%B7%E5%A5%A5%E6%9B%BC%C2%B7%E8%92%AF%E5%9B%A0</t>
+  </si>
+  <si>
+    <t>威拉德·冯·奥曼·蒯因</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E8%AB%96</t>
+  </si>
+  <si>
+    <t>二元论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E5%BE%B7%E5%A5%88%E7%89%B9</t>
+  </si>
+  <si>
+    <t>丹尼尔·德奈特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E7%BB%B4%E7%89%B9%E6%A0%B9%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>路德维希·维特根斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E5%9B%BE%E7%81%B5</t>
+  </si>
+  <si>
+    <t>艾伦·图灵</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_行为主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA</t>
-  </si>
-  <si>
-    <t>行为</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86</t>
-  </si>
-  <si>
-    <t>意识</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97</t>
-  </si>
-  <si>
-    <t>自由意志</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%88%E5%A4%A9%E4%B8%8E%E5%90%8E%E5%A4%A9</t>
-  </si>
-  <si>
-    <t>先天与后天</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83</t>
-  </si>
-  <si>
-    <t>環境</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%88%B6%E7%B4%84</t>
-  </si>
-  <si>
-    <t>古典制約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E5%BC%B7</t>
-  </si>
-  <si>
-    <t>增強</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E8%AB%96</t>
-  </si>
-  <si>
-    <t>方法論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%A1%91%E4%BB%A3%E5%85%8B</t>
-  </si>
-  <si>
-    <t>愛德華·桑代克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%88%E6%9E%9C%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>效果律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%8D%8E%E7%94%9F_(%E5%BF%83%E7%90%86%E5%AD%A6%E5%AE%B6)</t>
-  </si>
-  <si>
-    <t>约翰·华生 (心理学家)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E7%9C%81</t>
-  </si>
-  <si>
-    <t>内省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E8%B5%AB%E6%96%AF%C2%B7%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E6%96%AF%E9%87%91%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>伯尔赫斯·弗雷德里克·斯金纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E7%94%A8%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>实用主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%83%E7%BD%97%E5%BE%B7%E6%96%AF%C2%B7%E5%8D%8E%E7%94%9F</t>
-  </si>
-  <si>
-    <t>约翰·布罗德斯·华生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%87%C2%B7%E5%B7%B4%E7%94%AB%E6%B4%9B%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>伊万·巴甫洛夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E5%88%B6%E7%B4%84</t>
-  </si>
-  <si>
-    <t>操作制約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>精神分析学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%AF%9F</t>
-  </si>
-  <si>
-    <t>觀察</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%BF%B5</t>
-  </si>
-  <si>
-    <t>信念</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80</t>
-  </si>
-  <si>
-    <t>客觀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>认知心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>微观经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%C2%B7L%C2%B7%E8%B5%AB%E7%88%BE</t>
-  </si>
-  <si>
-    <t>克拉克·L·赫爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>比較心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%97</t>
-  </si>
-  <si>
-    <t>狗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E6%A1%91%E4%BB%A3%E5%85%8B</t>
-  </si>
-  <si>
-    <t>爱德华·桑代克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>認知主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E9%BC%A0</t>
-  </si>
-  <si>
-    <t>老鼠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%BD%E5%AD%90</t>
-  </si>
-  <si>
-    <t>鸽子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>精神哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>自然科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>化學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>物理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>分析哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E5%8D%A1%E5%B0%94%E7%BA%B3%E6%99%AE</t>
-  </si>
-  <si>
-    <t>鲁道夫·卡尔纳普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%8B%89%E5%BE%B7%C2%B7%E5%86%AF%C2%B7%E5%A5%A5%E6%9B%BC%C2%B7%E8%92%AF%E5%9B%A0</t>
-  </si>
-  <si>
-    <t>威拉德·冯·奥曼·蒯因</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E8%AB%96</t>
-  </si>
-  <si>
-    <t>二元論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E5%BE%B7%E5%A5%88%E7%89%B9</t>
-  </si>
-  <si>
-    <t>丹尼爾·德奈特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E7%BB%B4%E7%89%B9%E6%A0%B9%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>路德维希·维特根斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E5%9B%BE%E7%81%B5</t>
-  </si>
-  <si>
-    <t>艾伦·图灵</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,7 +1679,7 @@
         <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1699,10 +1705,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
         <v>63</v>
-      </c>
-      <c r="F37" t="s">
-        <v>64</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1728,10 +1734,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
         <v>65</v>
-      </c>
-      <c r="F38" t="s">
-        <v>66</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -1757,10 +1763,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
         <v>67</v>
-      </c>
-      <c r="F39" t="s">
-        <v>68</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1786,10 +1792,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
         <v>69</v>
-      </c>
-      <c r="F40" t="s">
-        <v>70</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1815,10 +1821,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
         <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>72</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1844,10 +1850,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s">
         <v>73</v>
-      </c>
-      <c r="F42" t="s">
-        <v>74</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1873,10 +1879,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
         <v>75</v>
-      </c>
-      <c r="F43" t="s">
-        <v>76</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1902,10 +1908,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" t="s">
         <v>77</v>
-      </c>
-      <c r="F44" t="s">
-        <v>78</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1931,10 +1937,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
         <v>79</v>
-      </c>
-      <c r="F45" t="s">
-        <v>80</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1960,10 +1966,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" t="s">
         <v>81</v>
-      </c>
-      <c r="F46" t="s">
-        <v>82</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1989,10 +1995,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" t="s">
         <v>83</v>
-      </c>
-      <c r="F47" t="s">
-        <v>84</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2018,10 +2024,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s">
         <v>85</v>
-      </c>
-      <c r="F48" t="s">
-        <v>86</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2047,10 +2053,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
         <v>87</v>
-      </c>
-      <c r="F49" t="s">
-        <v>88</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2076,10 +2082,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
         <v>89</v>
-      </c>
-      <c r="F50" t="s">
-        <v>90</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2117,6 +2123,64 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" t="n">
         <v>3</v>
       </c>
     </row>
